--- a/medicine/Enfance/Jeu_de_main/Jeu_de_main.xlsx
+++ b/medicine/Enfance/Jeu_de_main/Jeu_de_main.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un jeu de main, ou jeu de tape-main[1], est un jeu coopératif où au moins deux joueurs frappent dans leurs mains tout en chantant une chanson enfantine. Ce type de jeu est très courant dans les cours d'école.
-En raison de l'usage de facultés de communication et de coordination motrice, les jeux de main simple sont appropriés pour les enfants de 24 mois et plus[2]. Dans de nombreuses cultures les jeux de main sont pour les deux sexes et tous âges mais dans les cultures principalement européennes ou influencées par l'Europe, l'usage est orientée vers les jeunes filles[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un jeu de main, ou jeu de tape-main, est un jeu coopératif où au moins deux joueurs frappent dans leurs mains tout en chantant une chanson enfantine. Ce type de jeu est très courant dans les cours d'école.
+En raison de l'usage de facultés de communication et de coordination motrice, les jeux de main simple sont appropriés pour les enfants de 24 mois et plus. Dans de nombreuses cultures les jeux de main sont pour les deux sexes et tous âges mais dans les cultures principalement européennes ou influencées par l'Europe, l'usage est orientée vers les jeunes filles.
 	Jeu de main au Bénin.
 </t>
         </is>
@@ -515,19 +527,92 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francophones
-Trois petits chats
+          <t>Francophones</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Trois petits chats
 Tiens, voilà main droite
-Dans ma maison sous terre
-Anglophones
-Down Down Baby
+Dans ma maison sous terre</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jeu_de_main</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeu_de_main</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Comptines connues</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Anglophones</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Down Down Baby
 Mary Mack
 Miss Susie
 Patty-cake ou Pat-a-cake, pat-a-cake, baker's man
 Pretty Little Dutch Girl
-Stella Ella Ola
-Au Brésil
-Au Brésil on chante, entre autres chansons, "adoleta", corruption de "andouillette" ou peut-être de "un deux trois". Il a été apporté au pays lors de l'immigration française et a subi des adaptations au fil du temps.
+Stella Ella Ola</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jeu_de_main</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeu_de_main</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Comptines connues</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Au Brésil</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Brésil on chante, entre autres chansons, "adoleta", corruption de "andouillette" ou peut-être de "un deux trois". Il a été apporté au pays lors de l'immigration française et a subi des adaptations au fil du temps.
 La lettre la plus commune dit:
 A-do-le-tá;
 Le peti peti peti polá;
